--- a/NBA/Player Stats/2022 Season Data.xlsx
+++ b/NBA/Player Stats/2022 Season Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Assists'!$A$1:$I$589</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Rebounds'!$A$1:$I$589</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -396,10 +396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -492,431 +492,772 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.75</v>
+        <v>8.111111111111111</v>
       </c>
       <c r="C2" t="n">
-        <v>5.047501632220907</v>
+        <v>5.547961266432606</v>
       </c>
       <c r="D2" t="n">
-        <v>14.91424168461213</v>
+        <v>14.42425009869935</v>
       </c>
       <c r="E2" t="n">
-        <v>6.705000637288565</v>
+        <v>6.932769420645104</v>
       </c>
       <c r="F2" t="n">
-        <v>2.11423317213002</v>
+        <v>2.484151374562704</v>
       </c>
       <c r="G2" t="n">
-        <v>47.29847271256902</v>
+        <v>40.25519580810708</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1258473001339633</v>
+        <v>0.2092202122349396</v>
       </c>
       <c r="I2" t="n">
-        <v>794.6137890407734</v>
+        <v>477.9652927973662</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.882352941176471</v>
+        <v>20.4</v>
       </c>
       <c r="C3" t="n">
-        <v>4.675499344203468</v>
+        <v>5.299210568854688</v>
       </c>
       <c r="D3" t="n">
-        <v>6.396336424143101</v>
+        <v>88.64238670635001</v>
       </c>
       <c r="E3" t="n">
-        <v>15.63394939993275</v>
+        <v>1.128128468960058</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4774689304456015</v>
+        <v>60.4183355271856</v>
       </c>
       <c r="G3" t="n">
-        <v>209.4377112803429</v>
+        <v>1.655126695024632</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01255488607373456</v>
+        <v>24.84591790082325</v>
       </c>
       <c r="I3" t="n">
-        <v>7965.026477556408</v>
+        <v>4.024806022428602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Ochai Agbaji</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.82352941176471</v>
+        <v>5.516666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>5.015417406827261</v>
+        <v>5.047206532856639</v>
       </c>
       <c r="D4" t="n">
-        <v>83.19099818834043</v>
+        <v>4.6401103902861</v>
       </c>
       <c r="E4" t="n">
-        <v>1.202053132883498</v>
+        <v>21.55121141284619</v>
       </c>
       <c r="F4" t="n">
-        <v>48.59658629860641</v>
+        <v>0.3776275364364867</v>
       </c>
       <c r="G4" t="n">
-        <v>2.057757707208905</v>
+        <v>264.8111971485401</v>
       </c>
       <c r="H4" t="n">
-        <v>15.10099153098268</v>
+        <v>0.01250821194435092</v>
       </c>
       <c r="I4" t="n">
-        <v>6.622081721907477</v>
+        <v>7994.747806073349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.333333333333333</v>
+        <v>10.38775510204082</v>
       </c>
       <c r="C5" t="n">
-        <v>3.983298465677242</v>
+        <v>5.674564324431334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3704845002772905</v>
+        <v>26.22032041761155</v>
       </c>
       <c r="E5" t="n">
-        <v>269.9168249283158</v>
+        <v>3.813835926003117</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004193061603485759</v>
+        <v>6.454594156015004</v>
       </c>
       <c r="G5" t="n">
-        <v>23848.9222092202</v>
+        <v>15.49284084837627</v>
       </c>
       <c r="H5" t="n">
-        <v>1.060942085295835e-05</v>
+        <v>0.8224052326066267</v>
       </c>
       <c r="I5" t="n">
-        <v>9425585.183767671</v>
+        <v>121.5945570811221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.722222222222221</v>
+        <v>7.131147540983607</v>
       </c>
       <c r="C6" t="n">
-        <v>4.403281604540969</v>
+        <v>4.584304417742731</v>
       </c>
       <c r="D6" t="n">
-        <v>16.56502587579454</v>
+        <v>6.702230463358494</v>
       </c>
       <c r="E6" t="n">
-        <v>6.036815200278311</v>
+        <v>14.92040605686512</v>
       </c>
       <c r="F6" t="n">
-        <v>1.75581653963951</v>
+        <v>0.4812485463598581</v>
       </c>
       <c r="G6" t="n">
-        <v>56.95355849679557</v>
+        <v>207.7928354410531</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05923649759862482</v>
+        <v>0.01167554960526118</v>
       </c>
       <c r="I6" t="n">
-        <v>1688.148422912862</v>
+        <v>8564.907296093235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.8</v>
+        <v>12.6</v>
       </c>
       <c r="C7" t="n">
-        <v>3.881580434135903</v>
+        <v>6.704338009688066</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1954442677947976</v>
+        <v>41.72943709193411</v>
       </c>
       <c r="E7" t="n">
-        <v>511.6548115138009</v>
+        <v>2.396389862141922</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001499398187965184</v>
+        <v>16.98885395747981</v>
       </c>
       <c r="G7" t="n">
-        <v>66693.42460371307</v>
+        <v>5.886212233637587</v>
       </c>
       <c r="H7" t="n">
-        <v>2.358078077246972e-06</v>
+        <v>4.452864589111116</v>
       </c>
       <c r="I7" t="n">
-        <v>42407416.85565764</v>
+        <v>22.45745362312086</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.53333333333333</v>
+        <v>15.78181818181818</v>
       </c>
       <c r="C8" t="n">
-        <v>5.617150607948923</v>
+        <v>6.054355362482355</v>
       </c>
       <c r="D8" t="n">
-        <v>26.85654202522426</v>
+        <v>61.57370139435992</v>
       </c>
       <c r="E8" t="n">
-        <v>3.723487554953195</v>
+        <v>1.624069980128885</v>
       </c>
       <c r="F8" t="n">
-        <v>6.586835852763617</v>
+        <v>29.7519467738308</v>
       </c>
       <c r="G8" t="n">
-        <v>15.18179627294695</v>
+        <v>3.36112459329747</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8255503203271175</v>
+        <v>8.732707807939356</v>
       </c>
       <c r="I8" t="n">
-        <v>121.1313199665113</v>
+        <v>11.45120187224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.25</v>
+        <v>7.025</v>
       </c>
       <c r="C9" t="n">
-        <v>5.579725202313581</v>
+        <v>3.689816199994735</v>
       </c>
       <c r="D9" t="n">
-        <v>51.78686596132999</v>
+        <v>2.935638077068237</v>
       </c>
       <c r="E9" t="n">
-        <v>1.930991538948726</v>
+        <v>34.0641446168555</v>
       </c>
       <c r="F9" t="n">
-        <v>19.73023609937763</v>
+        <v>0.05863893948362398</v>
       </c>
       <c r="G9" t="n">
-        <v>5.068363069570892</v>
+        <v>1705.351441901961</v>
       </c>
       <c r="H9" t="n">
-        <v>4.02841723231372</v>
+        <v>0.0002107388535010912</v>
       </c>
       <c r="I9" t="n">
-        <v>24.82364517703273</v>
+        <v>474520.9454196931</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.333333333333334</v>
+        <v>6.186440677966102</v>
       </c>
       <c r="C10" t="n">
-        <v>4.47213595499958</v>
+        <v>3.21888059505371</v>
       </c>
       <c r="D10" t="n">
-        <v>10.25588405167027</v>
+        <v>0.760342305270445</v>
       </c>
       <c r="E10" t="n">
-        <v>9.750500249046206</v>
+        <v>131.5197106708815</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8536330546894177</v>
+        <v>0.003434906788779557</v>
       </c>
       <c r="G10" t="n">
-        <v>117.1463539874092</v>
+        <v>29112.87151274652</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0229875238193844</v>
+        <v>1.564284779487224e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>4350.185813213785</v>
+        <v>63926978.8412697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.307692307692307</v>
+        <v>30.83050847457627</v>
       </c>
       <c r="C11" t="n">
-        <v>4.308607961291276</v>
+        <v>9.647498411456976</v>
       </c>
       <c r="D11" t="n">
-        <v>3.710351445781612</v>
+        <v>95.94680697180836</v>
       </c>
       <c r="E11" t="n">
-        <v>26.95162478845296</v>
+        <v>1.042244167952171</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1610590516506694</v>
+        <v>88.99528329877937</v>
       </c>
       <c r="G11" t="n">
-        <v>620.8902820121901</v>
+        <v>1.123655055563732</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002010497079907303</v>
+        <v>76.05299331180574</v>
       </c>
       <c r="I11" t="n">
-        <v>49738.94316952236</v>
+        <v>1.3148726387404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.5</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C12" t="n">
-        <v>7.939676412704836</v>
+        <v>1.521133180837942</v>
       </c>
       <c r="D12" t="n">
-        <v>98.11531633898683</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.01920886291088</v>
+        <v/>
       </c>
       <c r="F12" t="n">
-        <v>92.62504321303192</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.079621628569783</v>
+        <v/>
       </c>
       <c r="H12" t="n">
-        <v>79.35135438522116</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.260217935468844</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Thanasis Antetokounmpo</t>
+          <t>Cole Anthony</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.28321681619551</v>
       </c>
       <c r="D13" t="n">
-        <v/>
+        <v>36.0135427067349</v>
       </c>
       <c r="E13" t="n">
-        <v/>
+        <v>2.776733208790897</v>
       </c>
       <c r="F13" t="n">
-        <v/>
+        <v>12.42772371956411</v>
       </c>
       <c r="G13" t="n">
-        <v/>
+        <v>8.046525836632245</v>
       </c>
       <c r="H13" t="n">
-        <v/>
+        <v>2.560962397307287</v>
       </c>
       <c r="I13" t="n">
-        <v/>
+        <v>39.04782050105248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cole Anthony</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.5</v>
+        <v>15.29268292682927</v>
       </c>
       <c r="C14" t="n">
-        <v>6.757711644237764</v>
+        <v>6.33736499832156</v>
       </c>
       <c r="D14" t="n">
-        <v>58.78308483470516</v>
+        <v>58.08146477034622</v>
       </c>
       <c r="E14" t="n">
-        <v>1.701169652480719</v>
+        <v>1.721719663844558</v>
       </c>
       <c r="F14" t="n">
-        <v>30.22546696020456</v>
+        <v>27.92760573675281</v>
       </c>
       <c r="G14" t="n">
-        <v>3.308468323472453</v>
+        <v>3.580686469961143</v>
       </c>
       <c r="H14" t="n">
-        <v>10.42280252686234</v>
+        <v>8.47262895851485</v>
       </c>
       <c r="I14" t="n">
-        <v>9.594348520205898</v>
+        <v>11.80271206134923</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Ryan Arcidiacono</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>6.997665343629824</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>74.24802350931769</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v>1.34683719880369</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>47.46789056484531</v>
+        <v/>
       </c>
       <c r="G15" t="n">
-        <v>2.106687253426423</v>
+        <v/>
       </c>
       <c r="H15" t="n">
-        <v>21.82735207420571</v>
+        <v/>
       </c>
       <c r="I15" t="n">
-        <v>4.581407752073334</v>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Deni Avdija</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13.63157894736842</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.983735131788536</v>
+      </c>
+      <c r="D16" t="n">
+        <v>47.89638944058348</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.08784004740174</v>
+      </c>
+      <c r="F16" t="n">
+        <v>22.10346982626263</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.524176556261009</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6.881792692311805</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14.53109741473583</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Deandre Ayton</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.485486755945035</v>
+      </c>
+      <c r="D17" t="n">
+        <v>51.84473457488904</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.928836184040084</v>
+      </c>
+      <c r="F17" t="n">
+        <v>23.43195733101381</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.267675917437897</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.737281030113551</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14.84278294953574</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Udoka Azubuike</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.838068424451189</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1366392339665068</v>
+      </c>
+      <c r="E18" t="n">
+        <v>731.854220029601</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0008577073301152538</v>
+      </c>
+      <c r="G18" t="n">
+        <v>116589.8861871247</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.060832455213045e-06</v>
+      </c>
+      <c r="I18" t="n">
+        <v>94265592.56232139</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ibou Badji</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.611111111111111</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.061949074765937</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.371684539516423e-08</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1067044025.845539</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v/>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Marvin Bagley III</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11.67441860465116</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.67668972214885</v>
+      </c>
+      <c r="D20" t="n">
+        <v>34.10232498315941</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.932351388047076</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9.84442616680643</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.15803240387757</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.495568175879192</v>
+      </c>
+      <c r="I20" t="n">
+        <v>66.86422030959139</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Amari Bailey</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.527525231651947</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.33066907387547e-14</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3002399751580330</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v/>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Patrick Baldwin Jr.</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.338373382667862</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.03759709837189984</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2659.779725840232</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.646939461589895e-05</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1770870.764246603</v>
+      </c>
+      <c r="H22" t="n">
+        <v>9.740630524390781e-09</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10266275858.59021</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LaMelo Ball</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>23.90909090909091</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.252588265474133</v>
+      </c>
+      <c r="D23" t="n">
+        <v>85.79048094958159</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.165630485959966</v>
+      </c>
+      <c r="F23" t="n">
+        <v>70.21395510133094</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.42421830326582</v>
+      </c>
+      <c r="H23" t="n">
+        <v>49.60803511961909</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.015802475523805</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mo Bamba</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4.026315789473684</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.976191591618476</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.606480535738485</v>
+      </c>
+      <c r="E24" t="n">
+        <v>164.8857533049009</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.00829964662280025</v>
+      </c>
+      <c r="G24" t="n">
+        <v>12048.70575155411</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.539286211300507e-05</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3938114.559712612</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Paolo Banchero</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>22.88135593220339</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.819261685233617</v>
+      </c>
+      <c r="D25" t="n">
+        <v>87.19862457799671</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.146807079629482</v>
+      </c>
+      <c r="F25" t="n">
+        <v>69.01882235267247</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.448880125612979</v>
+      </c>
+      <c r="H25" t="n">
+        <v>44.31203628319486</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.256723192789146</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Desmond Bane</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>24.43243243243243</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.251399007779565</v>
+      </c>
+      <c r="D26" t="n">
+        <v>89.69429169758598</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.114898151346808</v>
+      </c>
+      <c r="F26" t="n">
+        <v>74.48481949403659</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.342555445247554</v>
+      </c>
+      <c r="H26" t="n">
+        <v>52.08978675920977</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.919762130381911</v>
       </c>
     </row>
   </sheetData>
@@ -935,10 +1276,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -1011,428 +1352,769 @@
         <v>1.333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>1.07308673997732</v>
+        <v>1.492117654322079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6476789766040825</v>
+        <v>3.695507546319743</v>
       </c>
       <c r="E2" t="n">
-        <v>154.3974771642598</v>
+        <v>27.05988250506681</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006843437083348114</v>
+        <v>0.08813610364086788</v>
       </c>
       <c r="G2" t="n">
-        <v>146125.402750215</v>
+        <v>1134.608813744189</v>
       </c>
       <c r="H2" t="n">
-        <v>2.60562571519074e-08</v>
+        <v>0.0003949137666880986</v>
       </c>
       <c r="I2" t="n">
-        <v>3837849750.138794</v>
+        <v>253219.8379373784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.235294117647059</v>
+        <v>4.08</v>
       </c>
       <c r="C3" t="n">
-        <v>1.714985851425088</v>
+        <v>2.211657426327272</v>
       </c>
       <c r="D3" t="n">
-        <v>15.17418320124211</v>
+        <v>51.44273808761164</v>
       </c>
       <c r="E3" t="n">
-        <v>6.590140548178852</v>
+        <v>1.943908969808157</v>
       </c>
       <c r="F3" t="n">
-        <v>1.40752764180414</v>
+        <v>19.26623472411981</v>
       </c>
       <c r="G3" t="n">
-        <v>71.04656209225278</v>
+        <v>5.190427783733365</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03877810935236647</v>
+        <v>3.816190172278544</v>
       </c>
       <c r="I3" t="n">
-        <v>2578.77451144733</v>
+        <v>26.20414483702019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Ochai Agbaji</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.352941176470588</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>1.617914416408831</v>
+        <v>0.8885651482017907</v>
       </c>
       <c r="D4" t="n">
-        <v>34.4602601115352</v>
+        <v>0.0260215804959274</v>
       </c>
       <c r="E4" t="n">
-        <v>2.901893359955402</v>
+        <v>3842.964112639156</v>
       </c>
       <c r="F4" t="n">
-        <v>5.091003842873576</v>
+        <v>5.300134553465341e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>19.64249155694131</v>
+        <v>188674455.320418</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2037785531084468</v>
+        <v>7.771561172376096e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>490.7287762848234</v>
+        <v>1286742750677284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1666666666666667</v>
+        <v>2.122448979591837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.408248290463863</v>
+        <v>1.821545281041444</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15.13299081621011</v>
       </c>
       <c r="E5" t="n">
-        <v/>
+        <v>6.60807907798915</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.663891767329717</v>
       </c>
       <c r="G5" t="n">
-        <v/>
+        <v>60.10006297493987</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.06261684063552098</v>
       </c>
       <c r="I5" t="n">
-        <v/>
+        <v>1597.014461046961</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2.59016393442623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8401680504168059</v>
+        <v>1.773668976822976</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01780045816077713</v>
+        <v>21.33445952213324</v>
       </c>
       <c r="E6" t="n">
-        <v>5617.832928612338</v>
+        <v>4.687252559468679</v>
       </c>
       <c r="F6" t="n">
-        <v>1.33099631316469e-07</v>
+        <v>2.727294441695993</v>
       </c>
       <c r="G6" t="n">
-        <v>751316882.0297595</v>
+        <v>36.66637473063381</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.1143893942600727</v>
       </c>
       <c r="I6" t="n">
-        <v/>
+        <v>874.2069196786083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.1</v>
+        <v>3.090909090909091</v>
       </c>
       <c r="C7" t="n">
-        <v>1.370320319406298</v>
+        <v>2.101786958164033</v>
       </c>
       <c r="D7" t="n">
-        <v>1.715992614662787</v>
+        <v>33.26772628999957</v>
       </c>
       <c r="E7" t="n">
-        <v>58.27530908089089</v>
+        <v>3.005916278386012</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01745750691173331</v>
+        <v>8.316336637740241</v>
       </c>
       <c r="G7" t="n">
-        <v>5728.194782084795</v>
+        <v>12.02452526346655</v>
       </c>
       <c r="H7" t="n">
-        <v>2.385268017546238e-05</v>
+        <v>0.9754097478719803</v>
       </c>
       <c r="I7" t="n">
-        <v>4192400.990764616</v>
+        <v>102.5210176730002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.333333333333333</v>
+        <v>2.745454545454546</v>
       </c>
       <c r="C8" t="n">
-        <v>1.632993161855452</v>
+        <v>1.755606699165528</v>
       </c>
       <c r="D8" t="n">
-        <v>15.37170829636977</v>
+        <v>23.74300750647524</v>
       </c>
       <c r="E8" t="n">
-        <v>6.505457823683547</v>
+        <v>4.211766347322587</v>
       </c>
       <c r="F8" t="n">
-        <v>1.237233602319943</v>
+        <v>3.188381768708903</v>
       </c>
       <c r="G8" t="n">
-        <v>80.82548017810826</v>
+        <v>31.36387272735341</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02601221737951187</v>
+        <v>0.1381211099067858</v>
       </c>
       <c r="I8" t="n">
-        <v>3844.347390344488</v>
+        <v>724.0022909422555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.3125</v>
+        <v>1.95</v>
       </c>
       <c r="C9" t="n">
-        <v>1.01447851956888</v>
+        <v>1.501281503864666</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4034793268233305</v>
+        <v>8.604796540929694</v>
       </c>
       <c r="E9" t="n">
-        <v>247.8441728038931</v>
+        <v>11.62142527418732</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000191315427711114</v>
+        <v>0.3491066188753722</v>
       </c>
       <c r="G9" t="n">
-        <v>522696.9993815651</v>
+        <v>286.4454427193174</v>
       </c>
       <c r="H9" t="n">
-        <v>2.168876189756475e-09</v>
+        <v>0.002790142630959558</v>
       </c>
       <c r="I9" t="n">
-        <v>46106827338.64499</v>
+        <v>35840.46166328386</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.277777777777778</v>
+        <v>4.050847457627119</v>
       </c>
       <c r="C10" t="n">
-        <v>1.994272845677475</v>
+        <v>1.995025959675189</v>
       </c>
       <c r="D10" t="n">
-        <v>35.86206617237367</v>
+        <v>51.01667873675295</v>
       </c>
       <c r="E10" t="n">
-        <v>2.788461755642929</v>
+        <v>1.960143280122211</v>
       </c>
       <c r="F10" t="n">
-        <v>8.612338973115452</v>
+        <v>16.42830649695732</v>
       </c>
       <c r="G10" t="n">
-        <v>11.61124757306501</v>
+        <v>6.087054683239623</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8944884623965921</v>
+        <v>2.387990773058823</v>
       </c>
       <c r="I10" t="n">
-        <v>111.7957404750322</v>
+        <v>41.87620870574306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.692307692307693</v>
+        <v>6.305084745762712</v>
       </c>
       <c r="C11" t="n">
-        <v>1.887883090687176</v>
+        <v>3.16366350976825</v>
       </c>
       <c r="D11" t="n">
-        <v>24.42562856607777</v>
+        <v>76.6880631757214</v>
       </c>
       <c r="E11" t="n">
-        <v>4.094060454963262</v>
+        <v>1.303983903868613</v>
       </c>
       <c r="F11" t="n">
-        <v>3.98813877847205</v>
+        <v>53.84120574415486</v>
       </c>
       <c r="G11" t="n">
-        <v>25.07435311423951</v>
+        <v>1.857313531854852</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2465923996780806</v>
+        <v>29.60675798192843</v>
       </c>
       <c r="I11" t="n">
-        <v>405.5275025935397</v>
+        <v>3.377607236193799</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="C12" t="n">
-        <v>2.738612787525831</v>
+        <v>0.7071067811865476</v>
       </c>
       <c r="D12" t="n">
-        <v>70.80587896148174</v>
+        <v>3.7154918619553e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>1.412312105530104</v>
+        <v>2691433.697485597</v>
       </c>
       <c r="F12" t="n">
-        <v>42.7566070292353</v>
+        <v>3.663735981263017e-13</v>
       </c>
       <c r="G12" t="n">
-        <v>2.338819821030792</v>
+        <v>272945431961848.2</v>
       </c>
       <c r="H12" t="n">
-        <v>18.06552142630893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.535406238226227</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Thanasis Antetokounmpo</t>
+          <t>Cole Anthony</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.25</v>
+        <v>3.1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4629100498862757</v>
+        <v>2.3267056801482</v>
       </c>
       <c r="D13" t="n">
-        <v>2.220446049250313e-14</v>
+        <v>34.94473268631855</v>
       </c>
       <c r="E13" t="n">
-        <v>4503599627370496</v>
+        <v>2.861661609995709</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>10.63092605824323</v>
       </c>
       <c r="G13" t="n">
-        <v/>
+        <v>9.406518251762265</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.760296322549826</v>
       </c>
       <c r="I13" t="n">
-        <v/>
+        <v>56.80861723050578</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cole Anthony</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.25</v>
+        <v>2.268292682926829</v>
       </c>
       <c r="C14" t="n">
-        <v>1.707825127659933</v>
+        <v>1.500406448998111</v>
       </c>
       <c r="D14" t="n">
-        <v>55.81912703093159</v>
+        <v>12.42175336951443</v>
       </c>
       <c r="E14" t="n">
-        <v>1.791500607750208</v>
+        <v>8.050393291934197</v>
       </c>
       <c r="F14" t="n">
-        <v>15.27535434306269</v>
+        <v>0.6438899380799112</v>
       </c>
       <c r="G14" t="n">
-        <v>6.546492981710442</v>
+        <v>155.3060454682696</v>
       </c>
       <c r="H14" t="n">
-        <v>1.405402007357592</v>
+        <v>0.00666979529876377</v>
       </c>
       <c r="I14" t="n">
-        <v>71.1540181929994</v>
+        <v>14992.96387979624</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Ryan Arcidiacono</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="C15" t="n">
-        <v>1.555088632070459</v>
+        <v>0.4103913408340616</v>
       </c>
       <c r="D15" t="n">
-        <v>12.64777206044295</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>7.906530851608167</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>0.7563991489190625</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>132.2053311970349</v>
+        <v/>
       </c>
       <c r="H15" t="n">
-        <v>0.01014408654369525</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9857.960060696836</v>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Deni Avdija</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.789473684210526</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.839418018454898</v>
+      </c>
+      <c r="D16" t="n">
+        <v>45.44394791629697</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.200513040464477</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11.47295996094307</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8.716146516716339</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.103812106458668</v>
+      </c>
+      <c r="I16" t="n">
+        <v>90.59512884020398</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Deandre Ayton</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.085746818483091</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.807074702158995</v>
+      </c>
+      <c r="E17" t="n">
+        <v>55.33805541106044</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.004118770517924641</v>
+      </c>
+      <c r="G17" t="n">
+        <v>24279.08997716819</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.747660071162784e-07</v>
+      </c>
+      <c r="I17" t="n">
+        <v>266833165.4983134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Udoka Azubuike</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5789342235218394</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.09431369416302e-09</v>
+      </c>
+      <c r="E18" t="n">
+        <v>32317343968.27177</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v/>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ibou Badji</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8947924869885988</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01245561187841471</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8028.509636953101</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.83603976466884e-07</v>
+      </c>
+      <c r="G19" t="n">
+        <v>544650513.1550714</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.220446049250313e-14</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4503599627370496</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Marvin Bagley III</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.162790697674419</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8978872704229618</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.07891909416964937</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1267.120473849254</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.575729901061919e-06</v>
+      </c>
+      <c r="G20" t="n">
+        <v>27966318.14117225</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.321165399303936e-12</v>
+      </c>
+      <c r="I20" t="n">
+        <v>75690750039840.27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Amari Bailey</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5773502691896258</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.070621369336777e-08</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9340370261.986034</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v/>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Patrick Baldwin Jr.</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5982430416161189</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.849939669985929e-08</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1129951205.646569</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v/>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LaMelo Ball</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.943920288775949</v>
+      </c>
+      <c r="D23" t="n">
+        <v>91.28843058759874</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.095429063204694</v>
+      </c>
+      <c r="F23" t="n">
+        <v>75.1547076217616</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.330588637285101</v>
+      </c>
+      <c r="H23" t="n">
+        <v>50</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mo Bamba</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8976815403791097</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01239544421772765</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8067.480135724588</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.903453394902499e-07</v>
+      </c>
+      <c r="G24" t="n">
+        <v>525360905.9607279</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.220446049250313e-14</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4503599627370496</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Paolo Banchero</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5.203389830508475</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.226638575389378</v>
+      </c>
+      <c r="D25" t="n">
+        <v>70.55570994221159</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.417319733327106</v>
+      </c>
+      <c r="F25" t="n">
+        <v>36.02601270833744</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.775772073628819</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10.45618833278831</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.563714502580448</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Desmond Bane</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5.297297297297297</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.612628145340593</v>
+      </c>
+      <c r="D26" t="n">
+        <v>69.024635701691</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.448758098951476</v>
+      </c>
+      <c r="F26" t="n">
+        <v>39.39787244728051</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.538208126182779</v>
+      </c>
+      <c r="H26" t="n">
+        <v>15.04567033582587</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.64643035291594</v>
       </c>
     </row>
   </sheetData>
@@ -1451,10 +2133,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -1524,431 +2206,772 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6.537037037037037</v>
       </c>
       <c r="C2" t="n">
-        <v>5.222329678670935</v>
+        <v>3.917608834446651</v>
       </c>
       <c r="D2" t="n">
-        <v>71.71704559629808</v>
+        <v>74.13776192655013</v>
       </c>
       <c r="E2" t="n">
-        <v>1.394368649301441</v>
+        <v>1.3488402859945</v>
       </c>
       <c r="F2" t="n">
-        <v>57.59273494335098</v>
+        <v>55.45173512263881</v>
       </c>
       <c r="G2" t="n">
-        <v>1.736330113483261</v>
+        <v>1.803370079923321</v>
       </c>
       <c r="H2" t="n">
-        <v>42.40726505664902</v>
+        <v>35.44132396274795</v>
       </c>
       <c r="I2" t="n">
-        <v>2.358086518109968</v>
+        <v>2.821565021247769</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.94117647058824</v>
+        <v>10.4</v>
       </c>
       <c r="C3" t="n">
-        <v>4.205213850615896</v>
+        <v>3.790428331834743</v>
       </c>
       <c r="D3" t="n">
-        <v>95.05910871435692</v>
+        <v>95.43388579199583</v>
       </c>
       <c r="E3" t="n">
-        <v>1.051977041994892</v>
+        <v>1.047845837671918</v>
       </c>
       <c r="F3" t="n">
-        <v>88.00050298579839</v>
+        <v>87.71421769569213</v>
       </c>
       <c r="G3" t="n">
-        <v>1.13635714123291</v>
+        <v>1.140066030651166</v>
       </c>
       <c r="H3" t="n">
-        <v>75.78526631511316</v>
+        <v>73.66899311950657</v>
       </c>
       <c r="I3" t="n">
-        <v>1.319517696014983</v>
+        <v>1.357423194827422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Ochai Agbaji</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.352941176470589</v>
+        <v>2.45</v>
       </c>
       <c r="C4" t="n">
-        <v>2.956796756428066</v>
+        <v>1.960845545737167</v>
       </c>
       <c r="D4" t="n">
-        <v>96.48819659397901</v>
+        <v>21.46251165120324</v>
       </c>
       <c r="E4" t="n">
-        <v>1.036396196944157</v>
+        <v>4.659286929001795</v>
       </c>
       <c r="F4" t="n">
-        <v>87.15980198804245</v>
+        <v>3.511352220441011</v>
       </c>
       <c r="G4" t="n">
-        <v>1.147317888740949</v>
+        <v>28.47905699059732</v>
       </c>
       <c r="H4" t="n">
-        <v>67.63692612796991</v>
+        <v>0.2324407710933341</v>
       </c>
       <c r="I4" t="n">
-        <v>1.478482327993421</v>
+        <v>430.2171238274119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ochai Agbaji</t>
+          <t>Santi Aldama</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.666666666666667</v>
+        <v>5.63265306122449</v>
       </c>
       <c r="C5" t="n">
-        <v>1.632993161855452</v>
+        <v>2.743886215684945</v>
       </c>
       <c r="D5" t="n">
-        <v>7.652094207941007</v>
+        <v>72.40832296475122</v>
       </c>
       <c r="E5" t="n">
-        <v>13.06831793788221</v>
+        <v>1.381056705990561</v>
       </c>
       <c r="F5" t="n">
-        <v>0.398174460327505</v>
+        <v>44.6749388108644</v>
       </c>
       <c r="G5" t="n">
-        <v>251.1461933488862</v>
+        <v>2.238391426194438</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005258177701683575</v>
+        <v>19.41315445910583</v>
       </c>
       <c r="I5" t="n">
-        <v>19017.99552494808</v>
+        <v>5.151146363701574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Santi Aldama</t>
+          <t>Nickeil Alexander-Walker</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.888888888888889</v>
+        <v>1.967213114754098</v>
       </c>
       <c r="C6" t="n">
-        <v>2.867441755680876</v>
+        <v>1.722084135718056</v>
       </c>
       <c r="D6" t="n">
-        <v>74.49675433259149</v>
+        <v>11.89161058965604</v>
       </c>
       <c r="E6" t="n">
-        <v>1.342340359602098</v>
+        <v>8.409289830511716</v>
       </c>
       <c r="F6" t="n">
-        <v>48.45451683083328</v>
+        <v>0.9595344754461665</v>
       </c>
       <c r="G6" t="n">
-        <v>2.063791087817979</v>
+        <v>104.2172038201147</v>
       </c>
       <c r="H6" t="n">
-        <v>23.07938340134989</v>
+        <v>0.02298612293840652</v>
       </c>
       <c r="I6" t="n">
-        <v>4.332871388329685</v>
+        <v>4350.45093372029</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nickeil Alexander-Walker</t>
+          <t>Grayson Allen</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7</v>
+        <v>3.890909090909091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8232726023485646</v>
+        <v>1.987672445560825</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003056668446010935</v>
+        <v>47.81155406950322</v>
       </c>
       <c r="E7" t="n">
-        <v>32715.35718258998</v>
+        <v>2.091544647442978</v>
       </c>
       <c r="F7" t="n">
-        <v>6.064004853811866e-09</v>
+        <v>14.4325466461228</v>
       </c>
       <c r="G7" t="n">
-        <v>16490751971.79954</v>
+        <v>6.928784119112081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.935352365924115</v>
       </c>
       <c r="I7" t="n">
-        <v/>
+        <v>51.6701773592794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Grayson Allen</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.2</v>
+        <v>10.45454545454546</v>
       </c>
       <c r="C8" t="n">
-        <v>2.11119465164699</v>
+        <v>3.971277347534893</v>
       </c>
       <c r="D8" t="n">
-        <v>35.23690416556025</v>
+        <v>94.79514352987464</v>
       </c>
       <c r="E8" t="n">
-        <v>2.837933762005623</v>
+        <v>1.054906362038315</v>
       </c>
       <c r="F8" t="n">
-        <v>9.237624818288703</v>
+        <v>86.90030453570351</v>
       </c>
       <c r="G8" t="n">
-        <v>10.82529351073226</v>
+        <v>1.150743953479638</v>
       </c>
       <c r="H8" t="n">
-        <v>1.149519704623247</v>
+        <v>73.17369007789016</v>
       </c>
       <c r="I8" t="n">
-        <v>86.99285414404861</v>
+        <v>1.366611413112478</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Jose Alvarado</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.25</v>
+        <v>2.2</v>
       </c>
       <c r="C9" t="n">
-        <v>3.82099463490856</v>
+        <v>1.488416815070501</v>
       </c>
       <c r="D9" t="n">
-        <v>97.11131899532421</v>
+        <v>11.32663815799204</v>
       </c>
       <c r="E9" t="n">
-        <v>1.029746079391784</v>
+        <v>8.82874499963083</v>
       </c>
       <c r="F9" t="n">
-        <v>91.52772645257535</v>
+        <v>0.5339234543920046</v>
       </c>
       <c r="G9" t="n">
-        <v>1.092565104321853</v>
+        <v>187.2927648662169</v>
       </c>
       <c r="H9" t="n">
-        <v>80.24941678185755</v>
+        <v>0.004874449046321505</v>
       </c>
       <c r="I9" t="n">
-        <v>1.246114975163378</v>
+        <v>20515.13905463118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jose Alvarado</t>
+          <t>Kyle Anderson</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.333333333333333</v>
+        <v>3.525423728813559</v>
       </c>
       <c r="C10" t="n">
-        <v>1.236693884801685</v>
+        <v>2.238810738819792</v>
       </c>
       <c r="D10" t="n">
-        <v>8.88807870521452</v>
+        <v>41.60625086124601</v>
       </c>
       <c r="E10" t="n">
-        <v>11.25102548218113</v>
+        <v>2.403485003575379</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1513934652319304</v>
+        <v>13.4512993978619</v>
       </c>
       <c r="G10" t="n">
-        <v>660.5304915030704</v>
+        <v>7.434226021011404</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0002301544863692051</v>
+        <v>2.282366984157302</v>
       </c>
       <c r="I10" t="n">
-        <v>434490.7699934373</v>
+        <v>43.81416340760909</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kyle Anderson</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.461538461538462</v>
+        <v>11.27118644067797</v>
       </c>
       <c r="C11" t="n">
-        <v>2.366973616786656</v>
+        <v>3.527383070593486</v>
       </c>
       <c r="D11" t="n">
-        <v>41.00215839377113</v>
+        <v>98.03653767556627</v>
       </c>
       <c r="E11" t="n">
-        <v>2.438895997611471</v>
+        <v>1.0200278627845</v>
       </c>
       <c r="F11" t="n">
-        <v>14.17589153924011</v>
+        <v>93.24594570984289</v>
       </c>
       <c r="G11" t="n">
-        <v>7.054230044240342</v>
+        <v>1.072432685826084</v>
       </c>
       <c r="H11" t="n">
-        <v>2.759286118476656</v>
+        <v>82.31325635560208</v>
       </c>
       <c r="I11" t="n">
-        <v>36.24125795813009</v>
+        <v>1.214871145031479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.57142857142857</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C12" t="n">
-        <v>3.179605338700089</v>
+        <v>0.6373020054525532</v>
       </c>
       <c r="D12" t="n">
-        <v>99.13729521425262</v>
+        <v>7.017818659527109e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>1.008702121475908</v>
+        <v>142494420.0634823</v>
       </c>
       <c r="F12" t="n">
-        <v>96.01336424281833</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.041521675535704</v>
+        <v/>
       </c>
       <c r="H12" t="n">
-        <v>86.93301189377848</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.150311001788225</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Thanasis Antetokounmpo</t>
+          <t>Cole Anthony</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.875</v>
+        <v>4.016666666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>1.125991626459603</v>
+        <v>2.521041395438425</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2757273555861528</v>
+        <v>50.26373980156065</v>
       </c>
       <c r="E13" t="n">
-        <v>362.6771082884243</v>
+        <v>1.989505762897791</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0002662687729526603</v>
+        <v>21.57252603664936</v>
       </c>
       <c r="G13" t="n">
-        <v>375560.3741704211</v>
+        <v>4.635525752992994</v>
       </c>
       <c r="H13" t="n">
-        <v>1.243761760250095e-08</v>
+        <v>5.704943966486531</v>
       </c>
       <c r="I13" t="n">
-        <v>8040124981.804558</v>
+        <v>17.52865594954939</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cole Anthony</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.75</v>
+        <v>4.170731707317073</v>
       </c>
       <c r="C14" t="n">
-        <v>3.774917217635375</v>
+        <v>1.973606331368926</v>
       </c>
       <c r="D14" t="n">
-        <v>57.87434078122493</v>
+        <v>53.44684943194182</v>
       </c>
       <c r="E14" t="n">
-        <v>1.727881452300552</v>
+        <v>1.871017675744163</v>
       </c>
       <c r="F14" t="n">
-        <v>37.02719792836591</v>
+        <v>17.69980972677606</v>
       </c>
       <c r="G14" t="n">
-        <v>2.700717461620062</v>
+        <v>5.649778248673554</v>
       </c>
       <c r="H14" t="n">
-        <v>19.46338836238169</v>
+        <v>2.617531564784492</v>
       </c>
       <c r="I14" t="n">
-        <v>5.1378515466134</v>
+        <v>38.20393279888995</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Ryan Arcidiacono</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.111111111111111</v>
+        <v>0.4</v>
       </c>
       <c r="C15" t="n">
-        <v>2.446819998401019</v>
+        <v>0.5026246899500346</v>
       </c>
       <c r="D15" t="n">
-        <v>80.58756979324635</v>
+        <v>3.963496197911809e-11</v>
       </c>
       <c r="E15" t="n">
-        <v>1.240886159696312</v>
+        <v>2523025001328.009</v>
       </c>
       <c r="F15" t="n">
-        <v>51.81099101357569</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.930092400158832</v>
+        <v/>
       </c>
       <c r="H15" t="n">
-        <v>22.00640096091082</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4.54413241754644</v>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Deni Avdija</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6.631578947368421</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.143198887776639</v>
+      </c>
+      <c r="D16" t="n">
+        <v>79.87682209434743</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.251927622782537</v>
+      </c>
+      <c r="F16" t="n">
+        <v>57.96253348062699</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.725252400042578</v>
+      </c>
+      <c r="H16" t="n">
+        <v>33.16508025424753</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.01521959945183</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Deandre Ayton</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10.575</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.361177799043716</v>
+      </c>
+      <c r="D17" t="n">
+        <v>93.41741275744501</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.070464242674398</v>
+      </c>
+      <c r="F17" t="n">
+        <v>85.29175095154959</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.17244632551635</v>
+      </c>
+      <c r="H17" t="n">
+        <v>72.25510879602751</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.383985183418586</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Udoka Azubuike</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.123818457952024</v>
+      </c>
+      <c r="D18" t="n">
+        <v>29.15785898044006</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.429607093822729</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11.72157037155863</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8.531280095595491</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.36801047614208</v>
+      </c>
+      <c r="I18" t="n">
+        <v>29.69111904739262</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ibou Badji</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.612188624844061</v>
+      </c>
+      <c r="D19" t="n">
+        <v>30.48759405983703</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.280022680823327</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10.09655368889531</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9.904369657340107</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.059012089502243</v>
+      </c>
+      <c r="I19" t="n">
+        <v>48.56698049994186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Marvin Bagley III</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6.116279069767442</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.768347511560582</v>
+      </c>
+      <c r="D20" t="n">
+        <v>71.28034589479503</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.402911261788673</v>
+      </c>
+      <c r="F20" t="n">
+        <v>51.23081209324237</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.95195031884319</v>
+      </c>
+      <c r="H20" t="n">
+        <v>30.85798461201368</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.240652338684097</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Amari Bailey</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.154700538379252</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1946208561389273</v>
+      </c>
+      <c r="E21" t="n">
+        <v>513.8195462906423</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0001929808218448237</v>
+      </c>
+      <c r="G21" t="n">
+        <v>518186.2065050704</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.070621369336777e-08</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9340370261.986034</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Patrick Baldwin Jr.</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.300457620378583</v>
+      </c>
+      <c r="D22" t="n">
+        <v>21.06442558409005</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.747340467500331</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.710658013424174</v>
+      </c>
+      <c r="G22" t="n">
+        <v>21.22845677080049</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5495697155207813</v>
+      </c>
+      <c r="I22" t="n">
+        <v>181.9605359899396</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LaMelo Ball</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5.136363636363637</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.883375246798934</v>
+      </c>
+      <c r="D23" t="n">
+        <v>65.3249652840698</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.530808314480438</v>
+      </c>
+      <c r="F23" t="n">
+        <v>38.22706239873709</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.615947805691282</v>
+      </c>
+      <c r="H23" t="n">
+        <v>16.03173963099984</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.237626252776372</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mo Bamba</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.842105263157895</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.594446415873031</v>
+      </c>
+      <c r="D24" t="n">
+        <v>47.57358550713838</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.102006795031143</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20.27789603514066</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.931478089576186</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5.451001055320348</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18.34525419920748</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Paolo Banchero</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6.864406779661017</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.668188246981939</v>
+      </c>
+      <c r="D25" t="n">
+        <v>85.84855465605645</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.164841975507216</v>
+      </c>
+      <c r="F25" t="n">
+        <v>62.70187516537052</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.594848634690096</v>
+      </c>
+      <c r="H25" t="n">
+        <v>33.51979899821232</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.983311445433585</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Desmond Bane</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4.567567567567568</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.640923034560923</v>
+      </c>
+      <c r="D26" t="n">
+        <v>58.50822594139073</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.709161376729704</v>
+      </c>
+      <c r="F26" t="n">
+        <v>29.37720403113765</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.403999914151376</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9.685029761752872</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10.32521349546181</v>
       </c>
     </row>
   </sheetData>
